--- a/backgrounds/Flaws.xlsx
+++ b/backgrounds/Flaws.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="272">
   <si>
     <t>Acolyte</t>
   </si>
@@ -46,6 +46,105 @@
     <t>City Watch</t>
   </si>
   <si>
+    <t>Clan Crafter</t>
+  </si>
+  <si>
+    <t>Cloistered Scholar</t>
+  </si>
+  <si>
+    <t>Cormanthor Refugee</t>
+  </si>
+  <si>
+    <t>Courtier</t>
+  </si>
+  <si>
+    <t>Criminal</t>
+  </si>
+  <si>
+    <t>Dragon Casualty</t>
+  </si>
+  <si>
+    <t>Earthspur Miner</t>
+  </si>
+  <si>
+    <t>Fisher</t>
+  </si>
+  <si>
+    <t>Failed Merchant</t>
+  </si>
+  <si>
+    <t>Faceless</t>
+  </si>
+  <si>
+    <t>Entertainer</t>
+  </si>
+  <si>
+    <t>Far Traveler</t>
+  </si>
+  <si>
+    <t>Folk Hero</t>
+  </si>
+  <si>
+    <t>Gate Urchin</t>
+  </si>
+  <si>
+    <t>Golgari Agent</t>
+  </si>
+  <si>
+    <t>Gruul Anarch</t>
+  </si>
+  <si>
+    <t>Gambler</t>
+  </si>
+  <si>
+    <t>Guild Merchant</t>
+  </si>
+  <si>
+    <t>Guild Artisan</t>
+  </si>
+  <si>
+    <t>Harborfolk</t>
+  </si>
+  <si>
+    <t>Haunted One</t>
+  </si>
+  <si>
+    <t>Hermit</t>
+  </si>
+  <si>
+    <t>Hillsfar Merchant</t>
+  </si>
+  <si>
+    <t>Hillsfar Smuggler</t>
+  </si>
+  <si>
+    <t>House Agent</t>
+  </si>
+  <si>
+    <t>Inheritor</t>
+  </si>
+  <si>
+    <t>Initiate</t>
+  </si>
+  <si>
+    <t>Inquisitor</t>
+  </si>
+  <si>
+    <t>Iron Route Bandit</t>
+  </si>
+  <si>
+    <t>Izzet Engineer</t>
+  </si>
+  <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>Smuggler</t>
+  </si>
+  <si>
+    <t>Spy</t>
+  </si>
+  <si>
     <t>I judge others harshly, and myself even more severely.</t>
   </si>
   <si>
@@ -79,6 +178,87 @@
     <t>The monstrous enemy we faced in battle still leaves me quivering with fear.</t>
   </si>
   <si>
+    <t>I'll do anything to get my hands on something rare or priceless.</t>
+  </si>
+  <si>
+    <t>I am easily distracted by the promise of information.</t>
+  </si>
+  <si>
+    <t>I am very uncomfortable indoors and underground.</t>
+  </si>
+  <si>
+    <t>I have been touched with dragon-greed, and have a lust for wealth which can never be satisfied.</t>
+  </si>
+  <si>
+    <t>I'm uncomfortable spending time under the open sky. I'd rather be indoors or underground.</t>
+  </si>
+  <si>
+    <t>I am judgmental, especially of those I deem homebodies or otherwise lazy.</t>
+  </si>
+  <si>
+    <t>Why spend gold here when you can buy the same thing for copper in the next town?</t>
+  </si>
+  <si>
+    <t>I am callous about death. It comes to us all eventually.</t>
+  </si>
+  <si>
+    <t>I'll do anything to win fame and renown.</t>
+  </si>
+  <si>
+    <t>I am secretly (or not so secretly) convinced of the superiority of my own culture over that of this foreign land.</t>
+  </si>
+  <si>
+    <t>The tyrant who rules my land will stop at nothing to see me killed.</t>
+  </si>
+  <si>
+    <t>Though I no longer live at the Gate, I am still always concerned about where I will get my next meal.</t>
+  </si>
+  <si>
+    <t>Death comes for us all, so you can't expect me to take care of someone who can't fight it off.</t>
+  </si>
+  <si>
+    <t>If you question my courage, I will never back down.</t>
+  </si>
+  <si>
+    <t>I don't know when to quit. Especially when everyone else is telling me to.</t>
+  </si>
+  <si>
+    <t>I drink too much, which causes me to miss the tide.</t>
+  </si>
+  <si>
+    <t>I have certain rituals that I must follow every day. I can never break them.</t>
+  </si>
+  <si>
+    <t>Now that I've returned to the world, I enjoy its delights a little too much.</t>
+  </si>
+  <si>
+    <t>I am a braggart. I promote myself shamelessly.</t>
+  </si>
+  <si>
+    <t>My hatred for the Red Plumes burns so brightly that I have difficulty suppressing It around them.</t>
+  </si>
+  <si>
+    <t>I'm fixated on fol lowing official protocols.</t>
+  </si>
+  <si>
+    <t>I’m easily distracted by an attractive person, which could be the death of me in the trials.</t>
+  </si>
+  <si>
+    <t>I am troubled by the wild rage and bloodlust that lurks in my own heart.</t>
+  </si>
+  <si>
+    <t>I talk to animals; I believe they understand me, even if they do not.</t>
+  </si>
+  <si>
+    <t>If there's a plan, I'll probably forget it. If I don't forget it, I'll probably ignore it.</t>
+  </si>
+  <si>
+    <t>I secretly believe that everyone is beneath me.</t>
+  </si>
+  <si>
+    <t>Lying is reflexive, and I sometimes engage in it without realizing.</t>
+  </si>
+  <si>
     <t>I put too much trust in those who wield power within my temple’s hierarchy.</t>
   </si>
   <si>
@@ -112,6 +292,87 @@
     <t>I have little respect for anyone who is not a proven warrior.</t>
   </si>
   <si>
+    <t>I'm quick to assume that someone is trying to cheat me.</t>
+  </si>
+  <si>
+    <t>Most people scream and run when they see a demon. I stop and take notes on its anatomy.</t>
+  </si>
+  <si>
+    <t>I am haughty. I grew up among the elves and emulate them. Other races are crude in comparison.</t>
+  </si>
+  <si>
+    <t>I secretly believe others are plotting to harm me</t>
+  </si>
+  <si>
+    <t>I'm not used to being around other people much and sometimes get grouchy about it.</t>
+  </si>
+  <si>
+    <t>I become depressed and anxious if I'm away from the sea too long.</t>
+  </si>
+  <si>
+    <t>I must have the best of everything. Like, right now.</t>
+  </si>
+  <si>
+    <t>I never make eye contact or hold it unflinchingly.</t>
+  </si>
+  <si>
+    <t>I'm a sucker for a pretty face.</t>
+  </si>
+  <si>
+    <t>I pretend not to understand the local language in order to avoid interactions I would rather not have.</t>
+  </si>
+  <si>
+    <t>I’m convinced of the significance of my destiny, and blind to my shortcomings and the risk of failure.</t>
+  </si>
+  <si>
+    <t>Years of thieving have become habit. I sometimes steal from strangers without thinking about it.</t>
+  </si>
+  <si>
+    <t>I assume that anyone outside the Golgari looks down on me.</t>
+  </si>
+  <si>
+    <t>HrrrGGGAAAARRuuuh! [My anger in battle led to the death of a loved one.]</t>
+  </si>
+  <si>
+    <t>I save my sympathy for my friends, and I have no friends.</t>
+  </si>
+  <si>
+    <t>I killed a drunk member of the City Watch in a brawl. I am terrified that they might find out.</t>
+  </si>
+  <si>
+    <t>I assume the worst in people.</t>
+  </si>
+  <si>
+    <t>I harbor dark, bloodthirsty thoughts that my isolation and meditation failed to quell.</t>
+  </si>
+  <si>
+    <t>I am vain. I always wear the latest fashions.</t>
+  </si>
+  <si>
+    <t>The Red Plumes caught me once before, and I was branded for my crime. If they catch me again, for any offense, the punishment will be dire.</t>
+  </si>
+  <si>
+    <t>I'm obsessed with conspiracy theories and worried about secret societies and hidden demons.</t>
+  </si>
+  <si>
+    <t>I really wanted to be a vizier, and I’m angry at the god who didn’t choose me.</t>
+  </si>
+  <si>
+    <t>I have come to believe that I executed an innocent person.</t>
+  </si>
+  <si>
+    <t>I growl at and bite anyone who gets too close to my food while I am eating.</t>
+  </si>
+  <si>
+    <t>I get bored easily, and if nothing is happening I'll make something happen.</t>
+  </si>
+  <si>
+    <t>I hide a truly scandalous secret that could ruin my family forever.</t>
+  </si>
+  <si>
+    <t>I tend to assess my relationships in terms of profit and loss.</t>
+  </si>
+  <si>
     <t>My piety sometimes leads me to blindly trust those that profess faith in my god.</t>
   </si>
   <si>
@@ -145,6 +406,87 @@
     <t>I made a terrible mistake in battle cost many lives – and I would do anything to keep that mistake secret.</t>
   </si>
   <si>
+    <t>No one must ever learn that I once stole money from guild coffers.</t>
+  </si>
+  <si>
+    <t>Unlocking an ancient mystery is worth the price of a civilization.</t>
+  </si>
+  <si>
+    <t>Elf this, elf that. I am sick and tired of the elves.</t>
+  </si>
+  <si>
+    <t>I no longer enjoy the simple pleasures in life. Food is but ashes and bile in my throat.</t>
+  </si>
+  <si>
+    <t>Good tools are more reliable than people. In a cave in, I would save a sturdy pick before a stranger.</t>
+  </si>
+  <si>
+    <t>I have lived a hard life and find it difficult to empathize with others.</t>
+  </si>
+  <si>
+    <t>You haven't heard of me? I'm sure that's because of your ignorance and low breeding.</t>
+  </si>
+  <si>
+    <t>I have no sense of humor. Laughing is uncomfortable and embarrassing.</t>
+  </si>
+  <si>
+    <t>A scandal prevents me from ever going home again. That kind of trouble seems to follow me around.</t>
+  </si>
+  <si>
+    <t>I have a weakness for the new intoxicants and other pleasures of this land.</t>
+  </si>
+  <si>
+    <t>The people who knew me when I was young know my shameful secret, so I can never go home again.</t>
+  </si>
+  <si>
+    <t>I am ashamed of my origins. I pretend I am higher-born and fear others will find out the truth.</t>
+  </si>
+  <si>
+    <t>I feel a need for revenge against those who enjoy the privilege of living above ground.</t>
+  </si>
+  <si>
+    <t>I'm as stubborn as a batterboar.</t>
+  </si>
+  <si>
+    <t>You think we're in trouble now? Let me tell you how bad things are likely to get!</t>
+  </si>
+  <si>
+    <t>I oversell myself and make promises I can't keep when I want to impress someone.</t>
+  </si>
+  <si>
+    <t>I feel no compassion for the dead. They’re the lucky ones.</t>
+  </si>
+  <si>
+    <t>I am dogmatic in my thoughts and philosophy.</t>
+  </si>
+  <si>
+    <t>I am a glutton. I eat and drink to excess.</t>
+  </si>
+  <si>
+    <t>I treat all Hillsfarans poorly. I am disgusted with their failure to revolt against the Great Law of Humanity.</t>
+  </si>
+  <si>
+    <t>My house and blood line make me the best!</t>
+  </si>
+  <si>
+    <t>Training for a lifetime to die in the end seems like a big waste of energy.</t>
+  </si>
+  <si>
+    <t>I enjoy the prestige of my position more than service to the angels.</t>
+  </si>
+  <si>
+    <t>I strongly dislike enclosed spaces and require intoxication or firm encouragement to enter them.</t>
+  </si>
+  <si>
+    <t>Nothing is ever simple, and if it seems simple, I'll find a way to make it complicated.</t>
+  </si>
+  <si>
+    <t>I too often hear veiled insults and threats in every word addressed to me, and I'm quick to anger.</t>
+  </si>
+  <si>
+    <t>I believe everyone has a price and am cynical toward those who present themselves as virtuous.</t>
+  </si>
+  <si>
     <t>I am inflexible in my thinking.</t>
   </si>
   <si>
@@ -178,6 +520,87 @@
     <t>My hatred of my enemies is blind and unreasoning.</t>
   </si>
   <si>
+    <t>I'm never satisfied with what I have – I always want more.</t>
+  </si>
+  <si>
+    <t>I overlook obvious solutions in favor of complicated ones.</t>
+  </si>
+  <si>
+    <t>I am a miser. Having lost everything once before, I clutch my possessions and wealth very tightly.</t>
+  </si>
+  <si>
+    <t>Anyone who refuses to celebrate my celebrity does not deserve my company.</t>
+  </si>
+  <si>
+    <t>I jealously guard my secrets, because I think others will take advantage of me if they learn what I know.</t>
+  </si>
+  <si>
+    <t>I am inclined to tell long-winded stories at inopportune times.</t>
+  </si>
+  <si>
+    <t>I failed, but I'm awesome. So when anyone else is successful, it must be because of nepotism, dishonesty, or dumb luck.</t>
+  </si>
+  <si>
+    <t>I overexert myself, sometimes needing to recuperate for a day or more.</t>
+  </si>
+  <si>
+    <t>I once satirized a noble who still wants my head. It was a mistake that I will likely repeat.</t>
+  </si>
+  <si>
+    <t>I don't take kindly to some of the actions and motivations of the people of this land, because these folk are different from me.</t>
+  </si>
+  <si>
+    <t>I have a weakness for the vices of the city, especially hard drink.</t>
+  </si>
+  <si>
+    <t>I think people who grew up in houses are soft, spoiled, and ungrateful. I frequently tell them so.</t>
+  </si>
+  <si>
+    <t>I don't bother to couch my opinions in flattering words.</t>
+  </si>
+  <si>
+    <t>I'm so convinced of my superiority over soft, civilized people that I'll take great risks to prove it.</t>
+  </si>
+  <si>
+    <t>You can loan me a little, right? I've got a sure thing. I'll double your money, guaranteed.</t>
+  </si>
+  <si>
+    <t>Book learning is a waste of time. I have no patience for people who don't speak from experience.</t>
+  </si>
+  <si>
+    <t>I have an addiction.</t>
+  </si>
+  <si>
+    <t>I let my need to win arguments overshadow friendships and harmony.</t>
+  </si>
+  <si>
+    <t>I am a snob. I want only the finest things in life.</t>
+  </si>
+  <si>
+    <t>I have difficulty trusting strangers. Anyone could be a spy for the authorities.</t>
+  </si>
+  <si>
+    <t>My secret could get me expelled from my house.</t>
+  </si>
+  <si>
+    <t>I’m not at all sure I’ll be able to grant a glorified death to any of my crop-mates.</t>
+  </si>
+  <si>
+    <t>I drink to forget the horrors I’ve seen.</t>
+  </si>
+  <si>
+    <t>I robbed the wrong caravan once. The owner is a powerful merchant who holds a grudge.</t>
+  </si>
+  <si>
+    <t>I tend to ignore sleep for days when I'm conducting research, often at the expense of my own health and safety.</t>
+  </si>
+  <si>
+    <t>I have an insatiable desire for carnal pleasures.</t>
+  </si>
+  <si>
+    <t>I struggle to trust the words of others.</t>
+  </si>
+  <si>
     <t>I am suspicious of strangers and expect the worst of them.</t>
   </si>
   <si>
@@ -211,6 +634,87 @@
     <t>I obey the law, even if the law causes misery.</t>
   </si>
   <si>
+    <t>I would kill to acquire a noble title.</t>
+  </si>
+  <si>
+    <t>I speak without really thinking through my words, invariably insulting others.</t>
+  </si>
+  <si>
+    <t>I am a moocher. I am so used to others providing for me that I have come to expect everyone to do it.</t>
+  </si>
+  <si>
+    <t>I am paranoid and overly suspicious of others. Anyone may be an agent of the Maimed Virulence.</t>
+  </si>
+  <si>
+    <t>I am obsessed with getting rich. I always have a scheme brewing for making it big.</t>
+  </si>
+  <si>
+    <t>I work hard, but I play harder.</t>
+  </si>
+  <si>
+    <t>I find that most people are trustworthy. Hey, where's my belt pouch?</t>
+  </si>
+  <si>
+    <t>I think far ahead, a detachedness often mistaken for daydreaming.</t>
+  </si>
+  <si>
+    <t>I have trouble keeping my true feelings hidden. My sharp tongue lands me in trouble.</t>
+  </si>
+  <si>
+    <t>I consider the adherents of other gods to be deluded innocents at best, or ignorant fools at worst.</t>
+  </si>
+  <si>
+    <t>Secretly, I believe that things would be better if I were a tyrant lording over the land.</t>
+  </si>
+  <si>
+    <t>I am still very uncomfortable wearing nice clothes, sleeping in a warm bed, and eating fine food.</t>
+  </si>
+  <si>
+    <t>I can't help but pocket any trinket or coin I come across, no matter how worthless.</t>
+  </si>
+  <si>
+    <t>I'm easily manipulated by people I find attractive.</t>
+  </si>
+  <si>
+    <t>I was once a terribly flawed person, like you. Let me tell you how you can save yourself.</t>
+  </si>
+  <si>
+    <t>I almost always cheat. I can't help myself.</t>
+  </si>
+  <si>
+    <t>I am a purveyor of doom and gloom who lives in a world without hope.</t>
+  </si>
+  <si>
+    <t>I'd risk too much to uncover a lost bit of knowledge.</t>
+  </si>
+  <si>
+    <t>I am lazy. I want others to take care of everything.</t>
+  </si>
+  <si>
+    <t>I am greedy. There Isn't much I won't do for money.</t>
+  </si>
+  <si>
+    <t>My religious beliefs aren't widespread in my house.</t>
+  </si>
+  <si>
+    <t>I have a lasting grudge against one of my crop-mates, and each of us wants to see the other fail.</t>
+  </si>
+  <si>
+    <t>I might have made a promise to a demon that I can’t keep.</t>
+  </si>
+  <si>
+    <t>I’m an inveterate gambler.</t>
+  </si>
+  <si>
+    <t>I'm convinced there's not a soul in Ravnica, except maybe the great Niv-Mizzet, who can match my boundless intellect.</t>
+  </si>
+  <si>
+    <t>In fact, the world does revolve around me.</t>
+  </si>
+  <si>
+    <t>Few people know the real me.</t>
+  </si>
+  <si>
     <t>Once I pick a goal, I become obsessed with it to the detriment of everything else in my life.</t>
   </si>
   <si>
@@ -242,6 +746,87 @@
   </si>
   <si>
     <t>I'd rather eat my armor than admit when I'm wrong.</t>
+  </si>
+  <si>
+    <t>I'm horribly jealous of anyone who can outshine my handiwork. Everywhere I go, I'm surrounded by rivals.</t>
+  </si>
+  <si>
+    <t>I can't keep a secret to save my life, or anyone else's.</t>
+  </si>
+  <si>
+    <t>I believe the gods have cursed me, my family, and all of the Cormanthor refugees. We are all doomed, doomed I tell you!</t>
+  </si>
+  <si>
+    <t>Once I make up my mind, I follow my chosen course of action regardless of the consequences.</t>
+  </si>
+  <si>
+    <t>I'm afraid of the dark.</t>
+  </si>
+  <si>
+    <t>I am obsessed with catching an elusive aquatic beast, often to the detriment of other pursuits.</t>
+  </si>
+  <si>
+    <t>Nothing gets between me and danger except my fellow adventurers. So I'll be sure to put them there.</t>
+  </si>
+  <si>
+    <t>I see morality entirely in black and white.</t>
+  </si>
+  <si>
+    <t>Despite my best efforts, I am unreliable to my friends.</t>
+  </si>
+  <si>
+    <t>I have a weakness for the exotic beauty of the people of these lands.</t>
+  </si>
+  <si>
+    <t>I have trouble trusting in my allies.</t>
+  </si>
+  <si>
+    <t>I do not trust anyone who has not had a hard life.</t>
+  </si>
+  <si>
+    <t>I'm convinced that I'm better and stronger than members of other guilds, isolated as they are from the realities of life and death.</t>
+  </si>
+  <si>
+    <t>I'm not actually all that angry.</t>
+  </si>
+  <si>
+    <t>I'm a great gambler. I'm just bad at math and logic.</t>
+  </si>
+  <si>
+    <t>I am a secret informant for the Hawks. I send them reports about everything I see and hear, even what my friends and allies are up to.</t>
+  </si>
+  <si>
+    <t>I talk to spirits that no one else can see.</t>
+  </si>
+  <si>
+    <t>I like keeping secrets and won't share them with anyone.</t>
+  </si>
+  <si>
+    <t>I am overconfident. I overestimate my abilities.</t>
+  </si>
+  <si>
+    <t>I'm an informant for the Red Plumes. They let me continue my activities, so long as I pass them information about illegal activity in Hillsfar.</t>
+  </si>
+  <si>
+    <t>I'm working for a hidden faction in my house that gives me secret assignments</t>
+  </si>
+  <si>
+    <t>I think I’ve figured out that this world is not what it seems. Something dark is going on here.</t>
+  </si>
+  <si>
+    <t>I’ll do whatever grim task must be done, for my soul is already lost.</t>
+  </si>
+  <si>
+    <t>I judge people based on how well they stand their ground in a fight. I got no time for cowards…</t>
+  </si>
+  <si>
+    <t>I'm incapable of admitting a flaw in my logic.</t>
+  </si>
+  <si>
+    <t>By my words and actions, I often bring shame to my family.</t>
+  </si>
+  <si>
+    <t>Though I act charming, I feel nothing for others and don't know what friendship is.</t>
   </si>
 </sst>
 </file>
@@ -539,215 +1124,908 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>54</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>32</v>
+        <v>92</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>43</v>
+        <v>130</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AP4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR4" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>54</v>
+        <v>168</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AR5" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>196</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>61</v>
+        <v>202</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>62</v>
+        <v>203</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>63</v>
+        <v>204</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>65</v>
+        <v>206</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AN6" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AP6" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AR6" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>66</v>
+        <v>234</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>235</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>237</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>70</v>
+        <v>238</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>71</v>
+        <v>239</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>72</v>
+        <v>240</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>73</v>
+        <v>241</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>74</v>
+        <v>242</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>75</v>
+        <v>243</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>76</v>
+        <v>244</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL7" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="AO7" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="AP7" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AR7" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/backgrounds/Flaws.xlsx
+++ b/backgrounds/Flaws.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="337">
   <si>
     <t>Acolyte</t>
   </si>
@@ -139,6 +139,39 @@
     <t>Knight</t>
   </si>
   <si>
+    <t>Mercenary Veteran</t>
+  </si>
+  <si>
+    <t>Mulmaster Aristocrat</t>
+  </si>
+  <si>
+    <t>Noble</t>
+  </si>
+  <si>
+    <t>Orzhov Representative</t>
+  </si>
+  <si>
+    <t>Outlander</t>
+  </si>
+  <si>
+    <t>Pirate</t>
+  </si>
+  <si>
+    <t>Phlan Insurgent</t>
+  </si>
+  <si>
+    <t>Phlan Refugee</t>
+  </si>
+  <si>
+    <t>Plaintiff</t>
+  </si>
+  <si>
+    <t>Rakdos Cultist</t>
+  </si>
+  <si>
+    <t>Rival Intern</t>
+  </si>
+  <si>
     <t>Smuggler</t>
   </si>
   <si>
@@ -256,6 +289,33 @@
     <t>I secretly believe that everyone is beneath me.</t>
   </si>
   <si>
+    <t>I have difficulty caring about anyone or anything other than myself.</t>
+  </si>
+  <si>
+    <t>I hold a scandalous secret that could ruin my family forever - but could also earn me the favor of the Ghost Council.</t>
+  </si>
+  <si>
+    <t>I am too enamored of ale, wine, and other intoxicants.</t>
+  </si>
+  <si>
+    <t>I follow orders, even if I think they're wrong.</t>
+  </si>
+  <si>
+    <t>I have no respect for those who flee. I harbor a deep grudge against the citizens who abandoned Phlan.</t>
+  </si>
+  <si>
+    <t>I used the lives of children to facilitate my escape from Phlan.</t>
+  </si>
+  <si>
+    <t>The person who gains the most reward for the least effort wins.</t>
+  </si>
+  <si>
+    <t>My family is prominent in another guild. I enjoy my wild life, but I don't want to embarrass them.</t>
+  </si>
+  <si>
+    <t>I know what’s best. Trust me.</t>
+  </si>
+  <si>
     <t>Lying is reflexive, and I sometimes engage in it without realizing.</t>
   </si>
   <si>
@@ -370,6 +430,33 @@
     <t>I hide a truly scandalous secret that could ruin my family forever.</t>
   </si>
   <si>
+    <t>Having grown up with wealth, I am careless with my finances. I overspend and am overly generous.</t>
+  </si>
+  <si>
+    <t>I'm convinced that everyone I know is plotting against me.</t>
+  </si>
+  <si>
+    <t>There's no room for caution in a life lived to the fullest.</t>
+  </si>
+  <si>
+    <t>I'll say anything to avoid having to do extra work.</t>
+  </si>
+  <si>
+    <t>Ale is the only way I can escape the desperation of my circumstances.</t>
+  </si>
+  <si>
+    <t>I am a sucker for the underdog, and always bet on the losing team.</t>
+  </si>
+  <si>
+    <t>Three magic beans for just one cow? What a deal!</t>
+  </si>
+  <si>
+    <t>I couldn't hide my emotions and opinions even if I wanted to.</t>
+  </si>
+  <si>
+    <t>Flaw? I have no flaws. I’m perfect.</t>
+  </si>
+  <si>
     <t>I tend to assess my relationships in terms of profit and loss.</t>
   </si>
   <si>
@@ -484,6 +571,33 @@
     <t>I too often hear veiled insults and threats in every word addressed to me, and I'm quick to anger.</t>
   </si>
   <si>
+    <t>The ends (my advancement) justify any means.</t>
+  </si>
+  <si>
+    <t>I'll brave any risk if the monetary reward is great enough.</t>
+  </si>
+  <si>
+    <t>I remember every insult I've received and nurse a silent resentment toward anyone who's ever wronged me.</t>
+  </si>
+  <si>
+    <t>Once someone questions my courage, I never back down no matter how dangerous the situation.</t>
+  </si>
+  <si>
+    <t>It doesn’t take much to get me into a fight.</t>
+  </si>
+  <si>
+    <t>I am incapable of standing up for myself.</t>
+  </si>
+  <si>
+    <t>I have only one vice, but it controls my life.</t>
+  </si>
+  <si>
+    <t>I throw caution to the wind.</t>
+  </si>
+  <si>
+    <t>My loyalties are… fluid.</t>
+  </si>
+  <si>
     <t>I believe everyone has a price and am cynical toward those who present themselves as virtuous.</t>
   </si>
   <si>
@@ -598,6 +712,33 @@
     <t>I have an insatiable desire for carnal pleasures.</t>
   </si>
   <si>
+    <t>I must have what I want and will brook no delay.</t>
+  </si>
+  <si>
+    <t>I am convinced that I am far more important than anyone else is willing to acknowledge.</t>
+  </si>
+  <si>
+    <t>I am slow to trust members of other races, tribes, and societies.</t>
+  </si>
+  <si>
+    <t>Once I start drinking, it's hard for me to stop.</t>
+  </si>
+  <si>
+    <t>Being an insurgent means doing things that aren’t always ethical. I’m still learning to live with that.</t>
+  </si>
+  <si>
+    <t>I will borrow money from friends with no intention to repay it.</t>
+  </si>
+  <si>
+    <t>Sleep is for the weak. We need to keep training more if we're going to be ready for the challenges ahead.</t>
+  </si>
+  <si>
+    <t>I resent the rich and powerful.</t>
+  </si>
+  <si>
+    <t>If anything goes wrong, it must be someone else’s fault. Let me explain that in detail.</t>
+  </si>
+  <si>
     <t>I struggle to trust the words of others.</t>
   </si>
   <si>
@@ -712,6 +853,33 @@
     <t>In fact, the world does revolve around me.</t>
   </si>
   <si>
+    <t>My family has lost everything. I must keep up appearances, lest we become a laughingstock.</t>
+  </si>
+  <si>
+    <t>I have little respect for anyone who isn't wealthy.</t>
+  </si>
+  <si>
+    <t>Violence is my answer to almost any challenge.</t>
+  </si>
+  <si>
+    <t>I can't help but pocket loose coins and other trinkets I come across.</t>
+  </si>
+  <si>
+    <t>My desire to liberate Phlan oftentimes clouds my judgment, despite my best efforts.</t>
+  </si>
+  <si>
+    <t>I am unable to keep secrets. A secret is just an untold story.</t>
+  </si>
+  <si>
+    <t>Until my songs are sung in every tavern in this realm, I won't be satisfied.</t>
+  </si>
+  <si>
+    <t>When I'm angry, I lash out in violence.</t>
+  </si>
+  <si>
+    <t>There’s right and there’s wrong, and there’s no gray area in between.</t>
+  </si>
+  <si>
     <t>Few people know the real me.</t>
   </si>
   <si>
@@ -824,6 +992,33 @@
   </si>
   <si>
     <t>By my words and actions, I often bring shame to my family.</t>
+  </si>
+  <si>
+    <t>I have no artistic sense. I hide that fact behind extreme opinions and have become a trendsetter.</t>
+  </si>
+  <si>
+    <t>I'll take any opportunity to steal from wealthier people, even for worthless trinkets.</t>
+  </si>
+  <si>
+    <t>Don't expect me to save those who can't save themselves. It is nature's way that the strong thrive and the weak perish.</t>
+  </si>
+  <si>
+    <t>My pride will probably lead to my destruction.</t>
+  </si>
+  <si>
+    <t>I relentlessly despise the Maimed Virulence and his allies. I’d abandon other goals in order to strike out at them.</t>
+  </si>
+  <si>
+    <t>When something goes wrong, it's never my fault.</t>
+  </si>
+  <si>
+    <t>If people find me unpleasant, that's their problem.</t>
+  </si>
+  <si>
+    <t>There's no such thing as too much pleasure.</t>
+  </si>
+  <si>
+    <t>Our superiors might not like what you’re doing. I’m going to have to put that in my report.</t>
   </si>
   <si>
     <t>Though I act charming, I feel nothing for others and don't know what friendship is.</t>
@@ -1223,809 +1418,1040 @@
       <c r="AR1" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="AS1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="X2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC2" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="AI3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AJ3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="AR3" s="2" t="s">
-        <v>92</v>
+        <v>139</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="BB3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="BC3" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="AO4" s="2" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="AP4" s="2" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="AQ4" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>130</v>
+        <v>186</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT4" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AU4" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AV4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AX4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AY4" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AZ4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="BA4" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="BB4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="BC4" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="AQ5" s="2" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>168</v>
+        <v>233</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AT5" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AW5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AX5" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AY5" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AZ5" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="BA5" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="BB5" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="BC5" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>197</v>
+        <v>244</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>204</v>
+        <v>251</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>205</v>
+        <v>252</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>209</v>
+        <v>256</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>211</v>
+        <v>258</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>215</v>
+        <v>262</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>219</v>
+        <v>266</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>221</v>
+        <v>268</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>222</v>
+        <v>269</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>226</v>
+        <v>273</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>227</v>
+        <v>274</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>228</v>
+        <v>275</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="AN6" s="2" t="s">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>231</v>
+        <v>278</v>
       </c>
       <c r="AP6" s="2" t="s">
-        <v>232</v>
+        <v>279</v>
       </c>
       <c r="AQ6" s="2" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="AR6" s="2" t="s">
-        <v>206</v>
+        <v>280</v>
+      </c>
+      <c r="AS6" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="AT6" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="AU6" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="AV6" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="AW6" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="AX6" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="AY6" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="AZ6" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="BA6" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="BB6" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="BC6" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>234</v>
+        <v>290</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>235</v>
+        <v>291</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>237</v>
+        <v>293</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>238</v>
+        <v>294</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>241</v>
+        <v>297</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>242</v>
+        <v>298</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>243</v>
+        <v>299</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>244</v>
+        <v>300</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>245</v>
+        <v>301</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>246</v>
+        <v>302</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>247</v>
+        <v>303</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>245</v>
+        <v>301</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>244</v>
+        <v>300</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>248</v>
+        <v>304</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>249</v>
+        <v>305</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>251</v>
+        <v>307</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>252</v>
+        <v>308</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>253</v>
+        <v>309</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>254</v>
+        <v>310</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>255</v>
+        <v>311</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>256</v>
+        <v>312</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>258</v>
+        <v>314</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>259</v>
+        <v>315</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>245</v>
+        <v>301</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>245</v>
+        <v>301</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>260</v>
+        <v>316</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>261</v>
+        <v>317</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>262</v>
+        <v>318</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>263</v>
+        <v>319</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>264</v>
+        <v>320</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>265</v>
+        <v>321</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>255</v>
+        <v>311</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>266</v>
+        <v>322</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>267</v>
+        <v>323</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>268</v>
+        <v>324</v>
       </c>
       <c r="AO7" s="2" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="AQ7" s="2" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>244</v>
+        <v>327</v>
+      </c>
+      <c r="AS7" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="AT7" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="AU7" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="AW7" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AX7" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="AY7" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="AZ7" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="BA7" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="BB7" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="BC7" s="2" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/backgrounds/Flaws.xlsx
+++ b/backgrounds/Flaws.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="380">
   <si>
     <t>Acolyte</t>
   </si>
@@ -172,12 +172,39 @@
     <t>Rival Intern</t>
   </si>
   <si>
+    <t>Sage</t>
+  </si>
+  <si>
+    <t>Sailor</t>
+  </si>
+  <si>
+    <t>Secret Identity</t>
+  </si>
+  <si>
+    <t>Selesnya Initiate</t>
+  </si>
+  <si>
+    <t>Shade Fanatic</t>
+  </si>
+  <si>
+    <t>Shipwright</t>
+  </si>
+  <si>
+    <t>Simic Scientist</t>
+  </si>
+  <si>
     <t>Smuggler</t>
   </si>
   <si>
+    <t>Soldier</t>
+  </si>
+  <si>
     <t>Spy</t>
   </si>
   <si>
+    <t>Stojanow Prisoner</t>
+  </si>
+  <si>
     <t>I judge others harshly, and myself even more severely.</t>
   </si>
   <si>
@@ -316,9 +343,27 @@
     <t>I know what’s best. Trust me.</t>
   </si>
   <si>
+    <t>After years of denying who I am, I now despise myself and other members of my pathetic race.</t>
+  </si>
+  <si>
+    <t>I'm terrified of getting into a fight where my side is outnumbered.</t>
+  </si>
+  <si>
+    <t>I always over exaggerate my abilities.</t>
+  </si>
+  <si>
+    <t>I don’t know when to throw something away. You never know when it might be useful again.</t>
+  </si>
+  <si>
+    <t>I have a rather embarrassing mutation that I do everything I can to keep hidden.</t>
+  </si>
+  <si>
     <t>Lying is reflexive, and I sometimes engage in it without realizing.</t>
   </si>
   <si>
+    <t>During stressful times, I find myself crying for no reason.</t>
+  </si>
+  <si>
     <t>I put too much trust in those who wield power within my temple’s hierarchy.</t>
   </si>
   <si>
@@ -457,9 +502,27 @@
     <t>Flaw? I have no flaws. I’m perfect.</t>
   </si>
   <si>
+    <t>I am ashamed. I failed to protect a member of my family who was seized and thrown into the Arena.</t>
+  </si>
+  <si>
+    <t>I assume that people mean well until they prove otherwise.</t>
+  </si>
+  <si>
+    <t>I cannot bear to let those I care for out of my sight.</t>
+  </si>
+  <si>
+    <t>I get frustrated to the point of distraction by shoddy craftsmanship.</t>
+  </si>
+  <si>
+    <t>I'm more interested in taking notes on monstrous anatomy than in fighting monsters.</t>
+  </si>
+  <si>
     <t>I tend to assess my relationships in terms of profit and loss.</t>
   </si>
   <si>
+    <t>My nerve endings are shot from the interrogations; I am numb to all but the harshest touch.</t>
+  </si>
+  <si>
     <t>My piety sometimes leads me to blindly trust those that profess faith in my god.</t>
   </si>
   <si>
@@ -598,6 +661,18 @@
     <t>My loyalties are… fluid.</t>
   </si>
   <si>
+    <t>I am struggling with maintaining my secret identity. I subconsciously want to get caught and therefore sometimes let my secret identity slip.</t>
+  </si>
+  <si>
+    <t>I enjoy comfort and quiet, and prefer to avoid extra effort.</t>
+  </si>
+  <si>
+    <t>Though I am an excellent crafter, my work tends to look as though it belongs on a ship.</t>
+  </si>
+  <si>
+    <t>Every social situation I'm in seems to lead to my asking rude personal questions.</t>
+  </si>
+  <si>
     <t>I believe everyone has a price and am cynical toward those who present themselves as virtuous.</t>
   </si>
   <si>
@@ -739,9 +814,27 @@
     <t>If anything goes wrong, it must be someone else’s fault. Let me explain that in detail.</t>
   </si>
   <si>
+    <t>I’ve been lying so often and for so long that I can’t help it anymore. I frequently lie for no reason at all.</t>
+  </si>
+  <si>
+    <t>I have a fierce temper that doesn't reflect the inner calm I seek.</t>
+  </si>
+  <si>
+    <t>The group I am with has committed atrocities; I am always worried their actions will become public.</t>
+  </si>
+  <si>
+    <t>I am so obsessed with sketching my ideas for elaborate inventions that I somtimes forget little things like eating and sleeping.</t>
+  </si>
+  <si>
+    <t>I'm supremely confident in my ability to adapt to any situation and handle any danger.</t>
+  </si>
+  <si>
     <t>I struggle to trust the words of others.</t>
   </si>
   <si>
+    <t>I folded under the torture, and gave information that I promised would be kept secret. My life would be in jeopardy if others found out.</t>
+  </si>
+  <si>
     <t>I am suspicious of strangers and expect the worst of them.</t>
   </si>
   <si>
@@ -880,9 +973,27 @@
     <t>There’s right and there’s wrong, and there’s no gray area in between.</t>
   </si>
   <si>
+    <t>Years of hiding have made me somewhat paranoid. I trust no one.</t>
+  </si>
+  <si>
+    <t>I'm convinced that everyone else in the conclave has a deeper connection to the Worldsoul than I do.</t>
+  </si>
+  <si>
+    <t>I always enjoy a good mug of ale ... or five.</t>
+  </si>
+  <si>
+    <t>I’m judgemental of those who are not skilled with tools of some kind.</t>
+  </si>
+  <si>
+    <t>I'll take any risk to earn recognition for my scientific brilliance.</t>
+  </si>
+  <si>
     <t>Few people know the real me.</t>
   </si>
   <si>
+    <t>Survival is worth more than friendship.</t>
+  </si>
+  <si>
     <t>Once I pick a goal, I become obsessed with it to the detriment of everything else in my life.</t>
   </si>
   <si>
@@ -1021,7 +1132,25 @@
     <t>Our superiors might not like what you’re doing. I’m going to have to put that in my report.</t>
   </si>
   <si>
+    <t>Years of successfully deceiving others have made me cocky. I think no one can see through my lies.</t>
+  </si>
+  <si>
+    <t>I'm trying to atone for the life of crime I led before I joined the Selesnya, but I find it hard to give up my bad habits.</t>
+  </si>
+  <si>
+    <t>I know what I do is wrong, but am afraid to speak up about it. .</t>
+  </si>
+  <si>
+    <t>I sometimes take things that don’t belong to me, especially if they are very well made.</t>
+  </si>
+  <si>
+    <t>I have a tendency to take shortcuts in my research and any other tasks I have to complete.</t>
+  </si>
+  <si>
     <t>Though I act charming, I feel nothing for others and don't know what friendship is.</t>
+  </si>
+  <si>
+    <t>The ghosts from my past hinder my actions.</t>
   </si>
 </sst>
 </file>
@@ -1451,1007 +1580,1196 @@
       <c r="BC1" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="X2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="BC2" s="2" t="s">
-        <v>65</v>
+        <v>104</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="AB3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AC3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BB3" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AG3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AR3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AT3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AZ3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BA3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BB3" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="BC3" s="2" t="s">
-        <v>112</v>
+        <v>157</v>
+      </c>
+      <c r="BD3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="BE3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="BF3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="BG3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="BH3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="BI3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BK3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BL3" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="AJ4" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AP4" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AK4" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AL4" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM4" s="2" t="s">
+      <c r="AR4" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AT4" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AU4" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AV4" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AX4" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AY4" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AZ4" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="BA4" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="BB4" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AN4" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO4" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP4" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="AQ4" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AR4" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AS4" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="AT4" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AU4" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV4" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AW4" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="AX4" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="AY4" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AZ4" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="BA4" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="BB4" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="BC4" s="2" t="s">
-        <v>159</v>
+        <v>210</v>
+      </c>
+      <c r="BD4" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="BE4" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="BF4" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="BG4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="BH4" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="BI4" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="BJ4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="BK4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="BL4" s="2" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="AO5" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="AP5" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="AQ5" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="AR5" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AT5" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AW5" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AX5" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="AY5" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AZ5" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="BA5" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="BB5" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="AS5" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="AT5" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="AU5" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="AV5" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="AW5" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="AX5" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AY5" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="AZ5" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="BA5" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="BB5" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="BC5" s="2" t="s">
-        <v>206</v>
+        <v>261</v>
+      </c>
+      <c r="BD5" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="BE5" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="BF5" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="BG5" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="BH5" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="BI5" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="BJ5" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="BK5" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="BL5" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="AN6" s="2" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="AP6" s="2" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="AQ6" s="2" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="AR6" s="2" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="AS6" s="2" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="AT6" s="2" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="AU6" s="2" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="AV6" s="2" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="AW6" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AX6" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="AY6" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AZ6" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="BA6" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="BB6" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="BC6" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="BD6" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="BE6" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="BF6" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="BG6" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="BH6" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="BI6" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="BJ6" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AX6" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="AY6" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="AZ6" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="BA6" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="BB6" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="BC6" s="2" t="s">
-        <v>253</v>
+      <c r="BK6" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="BL6" s="2" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="AO7" s="2" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="AQ7" s="2" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="AS7" s="2" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="AT7" s="2" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="AU7" s="2" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="AV7" s="2" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="AW7" s="2" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="AX7" s="2" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="AY7" s="2" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="AZ7" s="2" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="BA7" s="2" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="BB7" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="BC7" s="2" t="s">
-        <v>300</v>
+        <v>367</v>
+      </c>
+      <c r="BD7" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="BE7" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="BF7" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="BG7" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="BH7" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="BI7" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="BJ7" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="BK7" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="BL7" s="2" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/backgrounds/Flaws.xlsx
+++ b/backgrounds/Flaws.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="303">
   <si>
     <t>Acolyte</t>
   </si>
@@ -25,15 +25,9 @@
     <t>Athlete</t>
   </si>
   <si>
-    <t>Azorius Functionary</t>
-  </si>
-  <si>
     <t>Black Fist Double Agent</t>
   </si>
   <si>
-    <t>Boros Legionnaire</t>
-  </si>
-  <si>
     <t>Caravan Specialist</t>
   </si>
   <si>
@@ -61,9 +55,6 @@
     <t>Criminal</t>
   </si>
   <si>
-    <t>Dragon Casualty</t>
-  </si>
-  <si>
     <t>Earthspur Miner</t>
   </si>
   <si>
@@ -88,12 +79,6 @@
     <t>Gate Urchin</t>
   </si>
   <si>
-    <t>Golgari Agent</t>
-  </si>
-  <si>
-    <t>Gruul Anarch</t>
-  </si>
-  <si>
     <t>Gambler</t>
   </si>
   <si>
@@ -118,9 +103,6 @@
     <t>Hillsfar Smuggler</t>
   </si>
   <si>
-    <t>House Agent</t>
-  </si>
-  <si>
     <t>Inheritor</t>
   </si>
   <si>
@@ -133,9 +115,6 @@
     <t>Iron Route Bandit</t>
   </si>
   <si>
-    <t>Izzet Engineer</t>
-  </si>
-  <si>
     <t>Knight</t>
   </si>
   <si>
@@ -148,9 +127,6 @@
     <t>Noble</t>
   </si>
   <si>
-    <t>Orzhov Representative</t>
-  </si>
-  <si>
     <t>Outlander</t>
   </si>
   <si>
@@ -166,9 +142,6 @@
     <t>Plaintiff</t>
   </si>
   <si>
-    <t>Rakdos Cultist</t>
-  </si>
-  <si>
     <t>Rival Intern</t>
   </si>
   <si>
@@ -181,18 +154,12 @@
     <t>Secret Identity</t>
   </si>
   <si>
-    <t>Selesnya Initiate</t>
-  </si>
-  <si>
     <t>Shade Fanatic</t>
   </si>
   <si>
     <t>Shipwright</t>
   </si>
   <si>
-    <t>Simic Scientist</t>
-  </si>
-  <si>
     <t>Smuggler</t>
   </si>
   <si>
@@ -217,15 +184,9 @@
     <t>I indulge in a habit that threatens my reputation or health.</t>
   </si>
   <si>
-    <t>I'm unable to distinguish between the letter and the spirit of the law.</t>
-  </si>
-  <si>
     <t>I think too highly of myself, and have an exaggerated sense of self-importance.</t>
   </si>
   <si>
-    <t>I act bravely when I'm in a group, but I'm a coward when I'm alone.</t>
-  </si>
-  <si>
     <t>I have trouble trusting people I've just met.</t>
   </si>
   <si>
@@ -247,9 +208,6 @@
     <t>I am very uncomfortable indoors and underground.</t>
   </si>
   <si>
-    <t>I have been touched with dragon-greed, and have a lust for wealth which can never be satisfied.</t>
-  </si>
-  <si>
     <t>I'm uncomfortable spending time under the open sky. I'd rather be indoors or underground.</t>
   </si>
   <si>
@@ -274,12 +232,6 @@
     <t>Though I no longer live at the Gate, I am still always concerned about where I will get my next meal.</t>
   </si>
   <si>
-    <t>Death comes for us all, so you can't expect me to take care of someone who can't fight it off.</t>
-  </si>
-  <si>
-    <t>If you question my courage, I will never back down.</t>
-  </si>
-  <si>
     <t>I don't know when to quit. Especially when everyone else is telling me to.</t>
   </si>
   <si>
@@ -298,9 +250,6 @@
     <t>My hatred for the Red Plumes burns so brightly that I have difficulty suppressing It around them.</t>
   </si>
   <si>
-    <t>I'm fixated on fol lowing official protocols.</t>
-  </si>
-  <si>
     <t>I’m easily distracted by an attractive person, which could be the death of me in the trials.</t>
   </si>
   <si>
@@ -310,18 +259,12 @@
     <t>I talk to animals; I believe they understand me, even if they do not.</t>
   </si>
   <si>
-    <t>If there's a plan, I'll probably forget it. If I don't forget it, I'll probably ignore it.</t>
-  </si>
-  <si>
     <t>I secretly believe that everyone is beneath me.</t>
   </si>
   <si>
     <t>I have difficulty caring about anyone or anything other than myself.</t>
   </si>
   <si>
-    <t>I hold a scandalous secret that could ruin my family forever - but could also earn me the favor of the Ghost Council.</t>
-  </si>
-  <si>
     <t>I am too enamored of ale, wine, and other intoxicants.</t>
   </si>
   <si>
@@ -337,27 +280,18 @@
     <t>The person who gains the most reward for the least effort wins.</t>
   </si>
   <si>
-    <t>My family is prominent in another guild. I enjoy my wild life, but I don't want to embarrass them.</t>
-  </si>
-  <si>
     <t>I know what’s best. Trust me.</t>
   </si>
   <si>
     <t>After years of denying who I am, I now despise myself and other members of my pathetic race.</t>
   </si>
   <si>
-    <t>I'm terrified of getting into a fight where my side is outnumbered.</t>
-  </si>
-  <si>
     <t>I always over exaggerate my abilities.</t>
   </si>
   <si>
     <t>I don’t know when to throw something away. You never know when it might be useful again.</t>
   </si>
   <si>
-    <t>I have a rather embarrassing mutation that I do everything I can to keep hidden.</t>
-  </si>
-  <si>
     <t>Lying is reflexive, and I sometimes engage in it without realizing.</t>
   </si>
   <si>
@@ -376,15 +310,9 @@
     <t>I'll do absolutely anything to win.</t>
   </si>
   <si>
-    <t>I seem like a harsh judge to others, but I judge myself most harshly of all.</t>
-  </si>
-  <si>
     <t>I have difficulty trusting strangers. I see spies and informants everywhere.</t>
   </si>
   <si>
-    <t>I see everything in clear-cut black and white.</t>
-  </si>
-  <si>
     <t>I enjoy the open road. Underground and tight spaces make me very nervous.</t>
   </si>
   <si>
@@ -406,9 +334,6 @@
     <t>I am haughty. I grew up among the elves and emulate them. Other races are crude in comparison.</t>
   </si>
   <si>
-    <t>I secretly believe others are plotting to harm me</t>
-  </si>
-  <si>
     <t>I'm not used to being around other people much and sometimes get grouchy about it.</t>
   </si>
   <si>
@@ -433,12 +358,6 @@
     <t>Years of thieving have become habit. I sometimes steal from strangers without thinking about it.</t>
   </si>
   <si>
-    <t>I assume that anyone outside the Golgari looks down on me.</t>
-  </si>
-  <si>
-    <t>HrrrGGGAAAARRuuuh! [My anger in battle led to the death of a loved one.]</t>
-  </si>
-  <si>
     <t>I save my sympathy for my friends, and I have no friends.</t>
   </si>
   <si>
@@ -457,9 +376,6 @@
     <t>The Red Plumes caught me once before, and I was branded for my crime. If they catch me again, for any offense, the punishment will be dire.</t>
   </si>
   <si>
-    <t>I'm obsessed with conspiracy theories and worried about secret societies and hidden demons.</t>
-  </si>
-  <si>
     <t>I really wanted to be a vizier, and I’m angry at the god who didn’t choose me.</t>
   </si>
   <si>
@@ -469,18 +385,12 @@
     <t>I growl at and bite anyone who gets too close to my food while I am eating.</t>
   </si>
   <si>
-    <t>I get bored easily, and if nothing is happening I'll make something happen.</t>
-  </si>
-  <si>
     <t>I hide a truly scandalous secret that could ruin my family forever.</t>
   </si>
   <si>
     <t>Having grown up with wealth, I am careless with my finances. I overspend and am overly generous.</t>
   </si>
   <si>
-    <t>I'm convinced that everyone I know is plotting against me.</t>
-  </si>
-  <si>
     <t>There's no room for caution in a life lived to the fullest.</t>
   </si>
   <si>
@@ -496,27 +406,18 @@
     <t>Three magic beans for just one cow? What a deal!</t>
   </si>
   <si>
-    <t>I couldn't hide my emotions and opinions even if I wanted to.</t>
-  </si>
-  <si>
     <t>Flaw? I have no flaws. I’m perfect.</t>
   </si>
   <si>
     <t>I am ashamed. I failed to protect a member of my family who was seized and thrown into the Arena.</t>
   </si>
   <si>
-    <t>I assume that people mean well until they prove otherwise.</t>
-  </si>
-  <si>
     <t>I cannot bear to let those I care for out of my sight.</t>
   </si>
   <si>
     <t>I get frustrated to the point of distraction by shoddy craftsmanship.</t>
   </si>
   <si>
-    <t>I'm more interested in taking notes on monstrous anatomy than in fighting monsters.</t>
-  </si>
-  <si>
     <t>I tend to assess my relationships in terms of profit and loss.</t>
   </si>
   <si>
@@ -535,15 +436,9 @@
     <t>I ignore anyone who doesn't compete and anyone who loses to me.</t>
   </si>
   <si>
-    <t>I have a secret, illegal vice.</t>
-  </si>
-  <si>
     <t>Years of getting away with minor crimes has left me believing that I am above the law, and have diplomatic immunity above my station.</t>
   </si>
   <si>
-    <t>I'm just a little fascinated by the ways of the Gruul.</t>
-  </si>
-  <si>
     <t>I expect others to heed my orders and have little respect or sympathy if they don't.</t>
   </si>
   <si>
@@ -565,9 +460,6 @@
     <t>Elf this, elf that. I am sick and tired of the elves.</t>
   </si>
   <si>
-    <t>I no longer enjoy the simple pleasures in life. Food is but ashes and bile in my throat.</t>
-  </si>
-  <si>
     <t>Good tools are more reliable than people. In a cave in, I would save a sturdy pick before a stranger.</t>
   </si>
   <si>
@@ -592,12 +484,6 @@
     <t>I am ashamed of my origins. I pretend I am higher-born and fear others will find out the truth.</t>
   </si>
   <si>
-    <t>I feel a need for revenge against those who enjoy the privilege of living above ground.</t>
-  </si>
-  <si>
-    <t>I'm as stubborn as a batterboar.</t>
-  </si>
-  <si>
     <t>You think we're in trouble now? Let me tell you how bad things are likely to get!</t>
   </si>
   <si>
@@ -616,9 +502,6 @@
     <t>I treat all Hillsfarans poorly. I am disgusted with their failure to revolt against the Great Law of Humanity.</t>
   </si>
   <si>
-    <t>My house and blood line make me the best!</t>
-  </si>
-  <si>
     <t>Training for a lifetime to die in the end seems like a big waste of energy.</t>
   </si>
   <si>
@@ -628,18 +511,12 @@
     <t>I strongly dislike enclosed spaces and require intoxication or firm encouragement to enter them.</t>
   </si>
   <si>
-    <t>Nothing is ever simple, and if it seems simple, I'll find a way to make it complicated.</t>
-  </si>
-  <si>
     <t>I too often hear veiled insults and threats in every word addressed to me, and I'm quick to anger.</t>
   </si>
   <si>
     <t>The ends (my advancement) justify any means.</t>
   </si>
   <si>
-    <t>I'll brave any risk if the monetary reward is great enough.</t>
-  </si>
-  <si>
     <t>I remember every insult I've received and nurse a silent resentment toward anyone who's ever wronged me.</t>
   </si>
   <si>
@@ -655,24 +532,15 @@
     <t>I have only one vice, but it controls my life.</t>
   </si>
   <si>
-    <t>I throw caution to the wind.</t>
-  </si>
-  <si>
     <t>My loyalties are… fluid.</t>
   </si>
   <si>
     <t>I am struggling with maintaining my secret identity. I subconsciously want to get caught and therefore sometimes let my secret identity slip.</t>
   </si>
   <si>
-    <t>I enjoy comfort and quiet, and prefer to avoid extra effort.</t>
-  </si>
-  <si>
     <t>Though I am an excellent crafter, my work tends to look as though it belongs on a ship.</t>
   </si>
   <si>
-    <t>Every social situation I'm in seems to lead to my asking rude personal questions.</t>
-  </si>
-  <si>
     <t>I believe everyone has a price and am cynical toward those who present themselves as virtuous.</t>
   </si>
   <si>
@@ -688,15 +556,9 @@
     <t>I have lingering pain of old injuries.</t>
   </si>
   <si>
-    <t>I was traumatized by witnessing a crime as a child.</t>
-  </si>
-  <si>
     <t>Years of seeing innocent people suffer have left me despondent and pessimistic for the future.</t>
   </si>
   <si>
-    <t>I trust the chain of command more than anything - more even than my closest friends.</t>
-  </si>
-  <si>
     <t>I am very prideful and have trouble admitting when I'm wrong.</t>
   </si>
   <si>
@@ -718,9 +580,6 @@
     <t>I am a miser. Having lost everything once before, I clutch my possessions and wealth very tightly.</t>
   </si>
   <si>
-    <t>Anyone who refuses to celebrate my celebrity does not deserve my company.</t>
-  </si>
-  <si>
     <t>I jealously guard my secrets, because I think others will take advantage of me if they learn what I know.</t>
   </si>
   <si>
@@ -745,12 +604,6 @@
     <t>I think people who grew up in houses are soft, spoiled, and ungrateful. I frequently tell them so.</t>
   </si>
   <si>
-    <t>I don't bother to couch my opinions in flattering words.</t>
-  </si>
-  <si>
-    <t>I'm so convinced of my superiority over soft, civilized people that I'll take great risks to prove it.</t>
-  </si>
-  <si>
     <t>You can loan me a little, right? I've got a sure thing. I'll double your money, guaranteed.</t>
   </si>
   <si>
@@ -769,9 +622,6 @@
     <t>I have difficulty trusting strangers. Anyone could be a spy for the authorities.</t>
   </si>
   <si>
-    <t>My secret could get me expelled from my house.</t>
-  </si>
-  <si>
     <t>I’m not at all sure I’ll be able to grant a glorified death to any of my crop-mates.</t>
   </si>
   <si>
@@ -781,18 +631,12 @@
     <t>I robbed the wrong caravan once. The owner is a powerful merchant who holds a grudge.</t>
   </si>
   <si>
-    <t>I tend to ignore sleep for days when I'm conducting research, often at the expense of my own health and safety.</t>
-  </si>
-  <si>
     <t>I have an insatiable desire for carnal pleasures.</t>
   </si>
   <si>
     <t>I must have what I want and will brook no delay.</t>
   </si>
   <si>
-    <t>I am convinced that I am far more important than anyone else is willing to acknowledge.</t>
-  </si>
-  <si>
     <t>I am slow to trust members of other races, tribes, and societies.</t>
   </si>
   <si>
@@ -808,27 +652,18 @@
     <t>Sleep is for the weak. We need to keep training more if we're going to be ready for the challenges ahead.</t>
   </si>
   <si>
-    <t>I resent the rich and powerful.</t>
-  </si>
-  <si>
     <t>If anything goes wrong, it must be someone else’s fault. Let me explain that in detail.</t>
   </si>
   <si>
     <t>I’ve been lying so often and for so long that I can’t help it anymore. I frequently lie for no reason at all.</t>
   </si>
   <si>
-    <t>I have a fierce temper that doesn't reflect the inner calm I seek.</t>
-  </si>
-  <si>
     <t>The group I am with has committed atrocities; I am always worried their actions will become public.</t>
   </si>
   <si>
     <t>I am so obsessed with sketching my ideas for elaborate inventions that I somtimes forget little things like eating and sleeping.</t>
   </si>
   <si>
-    <t>I'm supremely confident in my ability to adapt to any situation and handle any danger.</t>
-  </si>
-  <si>
     <t>I struggle to trust the words of others.</t>
   </si>
   <si>
@@ -847,15 +682,9 @@
     <t>Any defeat or failure on my part is because my opponents cheated.</t>
   </si>
   <si>
-    <t>I'm incapable of deception.</t>
-  </si>
-  <si>
     <t>My desire for vengeance often gets me into trouble.</t>
   </si>
   <si>
-    <t>I'm slow to trust members of other guilds.</t>
-  </si>
-  <si>
     <t>Once I decide on a course of action, I do not waiver.</t>
   </si>
   <si>
@@ -877,9 +706,6 @@
     <t>I am a moocher. I am so used to others providing for me that I have come to expect everyone to do it.</t>
   </si>
   <si>
-    <t>I am paranoid and overly suspicious of others. Anyone may be an agent of the Maimed Virulence.</t>
-  </si>
-  <si>
     <t>I am obsessed with getting rich. I always have a scheme brewing for making it big.</t>
   </si>
   <si>
@@ -904,12 +730,6 @@
     <t>I am still very uncomfortable wearing nice clothes, sleeping in a warm bed, and eating fine food.</t>
   </si>
   <si>
-    <t>I can't help but pocket any trinket or coin I come across, no matter how worthless.</t>
-  </si>
-  <si>
-    <t>I'm easily manipulated by people I find attractive.</t>
-  </si>
-  <si>
     <t>I was once a terribly flawed person, like you. Let me tell you how you can save yourself.</t>
   </si>
   <si>
@@ -928,9 +748,6 @@
     <t>I am greedy. There Isn't much I won't do for money.</t>
   </si>
   <si>
-    <t>My religious beliefs aren't widespread in my house.</t>
-  </si>
-  <si>
     <t>I have a lasting grudge against one of my crop-mates, and each of us wants to see the other fail.</t>
   </si>
   <si>
@@ -940,18 +757,12 @@
     <t>I’m an inveterate gambler.</t>
   </si>
   <si>
-    <t>I'm convinced there's not a soul in Ravnica, except maybe the great Niv-Mizzet, who can match my boundless intellect.</t>
-  </si>
-  <si>
     <t>In fact, the world does revolve around me.</t>
   </si>
   <si>
     <t>My family has lost everything. I must keep up appearances, lest we become a laughingstock.</t>
   </si>
   <si>
-    <t>I have little respect for anyone who isn't wealthy.</t>
-  </si>
-  <si>
     <t>Violence is my answer to almost any challenge.</t>
   </si>
   <si>
@@ -967,27 +778,18 @@
     <t>Until my songs are sung in every tavern in this realm, I won't be satisfied.</t>
   </si>
   <si>
-    <t>When I'm angry, I lash out in violence.</t>
-  </si>
-  <si>
     <t>There’s right and there’s wrong, and there’s no gray area in between.</t>
   </si>
   <si>
     <t>Years of hiding have made me somewhat paranoid. I trust no one.</t>
   </si>
   <si>
-    <t>I'm convinced that everyone else in the conclave has a deeper connection to the Worldsoul than I do.</t>
-  </si>
-  <si>
     <t>I always enjoy a good mug of ale ... or five.</t>
   </si>
   <si>
     <t>I’m judgemental of those who are not skilled with tools of some kind.</t>
   </si>
   <si>
-    <t>I'll take any risk to earn recognition for my scientific brilliance.</t>
-  </si>
-  <si>
     <t>Few people know the real me.</t>
   </si>
   <si>
@@ -1006,15 +808,9 @@
     <t>I must be the captain of any group I join.</t>
   </si>
   <si>
-    <t>I wish I had joined the Boros, but I fear they'd never accept me.</t>
-  </si>
-  <si>
     <t>I am spendthrift, and share my wealth with the patrons of my favorite tavern.</t>
   </si>
   <si>
-    <t>I've been known to turn a blind eye to injustice, with the help of a modest bribe.</t>
-  </si>
-  <si>
     <t>I like to explore, and my curiosity will sometimes get me into trouble.</t>
   </si>
   <si>
@@ -1036,9 +832,6 @@
     <t>I believe the gods have cursed me, my family, and all of the Cormanthor refugees. We are all doomed, doomed I tell you!</t>
   </si>
   <si>
-    <t>Once I make up my mind, I follow my chosen course of action regardless of the consequences.</t>
-  </si>
-  <si>
     <t>I'm afraid of the dark.</t>
   </si>
   <si>
@@ -1063,12 +856,6 @@
     <t>I do not trust anyone who has not had a hard life.</t>
   </si>
   <si>
-    <t>I'm convinced that I'm better and stronger than members of other guilds, isolated as they are from the realities of life and death.</t>
-  </si>
-  <si>
-    <t>I'm not actually all that angry.</t>
-  </si>
-  <si>
     <t>I'm a great gambler. I'm just bad at math and logic.</t>
   </si>
   <si>
@@ -1087,9 +874,6 @@
     <t>I'm an informant for the Red Plumes. They let me continue my activities, so long as I pass them information about illegal activity in Hillsfar.</t>
   </si>
   <si>
-    <t>I'm working for a hidden faction in my house that gives me secret assignments</t>
-  </si>
-  <si>
     <t>I think I’ve figured out that this world is not what it seems. Something dark is going on here.</t>
   </si>
   <si>
@@ -1099,18 +883,12 @@
     <t>I judge people based on how well they stand their ground in a fight. I got no time for cowards…</t>
   </si>
   <si>
-    <t>I'm incapable of admitting a flaw in my logic.</t>
-  </si>
-  <si>
     <t>By my words and actions, I often bring shame to my family.</t>
   </si>
   <si>
     <t>I have no artistic sense. I hide that fact behind extreme opinions and have become a trendsetter.</t>
   </si>
   <si>
-    <t>I'll take any opportunity to steal from wealthier people, even for worthless trinkets.</t>
-  </si>
-  <si>
     <t>Don't expect me to save those who can't save themselves. It is nature's way that the strong thrive and the weak perish.</t>
   </si>
   <si>
@@ -1126,25 +904,16 @@
     <t>If people find me unpleasant, that's their problem.</t>
   </si>
   <si>
-    <t>There's no such thing as too much pleasure.</t>
-  </si>
-  <si>
     <t>Our superiors might not like what you’re doing. I’m going to have to put that in my report.</t>
   </si>
   <si>
     <t>Years of successfully deceiving others have made me cocky. I think no one can see through my lies.</t>
   </si>
   <si>
-    <t>I'm trying to atone for the life of crime I led before I joined the Selesnya, but I find it hard to give up my bad habits.</t>
-  </si>
-  <si>
     <t>I know what I do is wrong, but am afraid to speak up about it. .</t>
   </si>
   <si>
     <t>I sometimes take things that don’t belong to me, especially if they are very well made.</t>
-  </si>
-  <si>
-    <t>I have a tendency to take shortcuts in my research and any other tasks I have to complete.</t>
   </si>
   <si>
     <t>Though I act charming, I feel nothing for others and don't know what friendship is.</t>
@@ -1442,10 +1211,10 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -1573,1203 +1342,972 @@
       </c>
       <c r="BA1" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="X2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA2" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="BH2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BL2" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK3" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM3" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT3" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="R3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="AW3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="AY3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA3" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AS3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT3" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="AU3" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AX3" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AY3" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AZ3" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="BA3" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="BB3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BC3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="BD3" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="BE3" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="BF3" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="BG3" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="BH3" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="BI3" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="BJ3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BK3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BL3" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO4" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="AP4" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="AQ4" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="AR4" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="AS4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AU4" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="AV4" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AW4" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="AX4" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="AJ4" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="AK4" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="AL4" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="AM4" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AN4" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO4" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AP4" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AQ4" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR4" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="AS4" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AT4" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="AU4" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="AV4" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="AW4" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="AX4" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="AY4" s="2" t="s">
-        <v>213</v>
+        <v>145</v>
       </c>
       <c r="AZ4" s="2" t="s">
-        <v>214</v>
+        <v>145</v>
       </c>
       <c r="BA4" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="BB4" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="BC4" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="BD4" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="BE4" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="BF4" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="BG4" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="BH4" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="BI4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="BJ4" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="BK4" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="BL4" s="2" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>243</v>
+        <v>186</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="AQ5" s="2" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="AS5" s="2" t="s">
-        <v>257</v>
+        <v>187</v>
       </c>
       <c r="AT5" s="2" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c r="AU5" s="2" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="AV5" s="2" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="AW5" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="AX5" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="AY5" s="2" t="s">
-        <v>264</v>
+        <v>185</v>
       </c>
       <c r="AZ5" s="2" t="s">
-        <v>265</v>
+        <v>185</v>
       </c>
       <c r="BA5" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="BB5" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="BC5" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="BD5" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="BE5" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="BF5" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="BG5" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="BH5" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="BI5" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="BJ5" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="BK5" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="BL5" s="2" t="s">
-        <v>273</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>274</v>
+        <v>219</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>278</v>
+        <v>223</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>286</v>
+        <v>228</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>287</v>
+        <v>227</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>284</v>
+        <v>232</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>288</v>
+        <v>233</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>289</v>
+        <v>234</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>291</v>
+        <v>236</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>292</v>
+        <v>237</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>293</v>
+        <v>238</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>294</v>
+        <v>239</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>295</v>
+        <v>228</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>296</v>
+        <v>228</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>297</v>
+        <v>240</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>298</v>
+        <v>241</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>299</v>
+        <v>242</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>285</v>
+        <v>243</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>300</v>
+        <v>237</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>301</v>
+        <v>245</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>302</v>
+        <v>246</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>303</v>
+        <v>247</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>304</v>
+        <v>248</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>305</v>
+        <v>227</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>306</v>
+        <v>248</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>307</v>
+        <v>250</v>
       </c>
       <c r="AN6" s="2" t="s">
-        <v>308</v>
+        <v>251</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>309</v>
+        <v>252</v>
       </c>
       <c r="AP6" s="2" t="s">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c r="AQ6" s="2" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="AR6" s="2" t="s">
-        <v>311</v>
+        <v>255</v>
       </c>
       <c r="AS6" s="2" t="s">
-        <v>310</v>
+        <v>229</v>
       </c>
       <c r="AT6" s="2" t="s">
-        <v>312</v>
+        <v>251</v>
       </c>
       <c r="AU6" s="2" t="s">
-        <v>313</v>
+        <v>256</v>
       </c>
       <c r="AV6" s="2" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
       <c r="AW6" s="2" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="AX6" s="2" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="AY6" s="2" t="s">
-        <v>317</v>
+        <v>227</v>
       </c>
       <c r="AZ6" s="2" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
       <c r="BA6" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="BB6" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="BC6" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="BD6" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="BE6" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="BF6" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="BG6" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="BH6" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="BI6" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="BJ6" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="BK6" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="BL6" s="2" t="s">
-        <v>326</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>327</v>
+        <v>261</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>328</v>
+        <v>262</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>329</v>
+        <v>263</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>330</v>
+        <v>264</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>331</v>
+        <v>265</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>332</v>
+        <v>266</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>334</v>
+        <v>268</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>335</v>
+        <v>269</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>336</v>
+        <v>270</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>337</v>
+        <v>271</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>338</v>
+        <v>272</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>339</v>
+        <v>270</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>340</v>
+        <v>269</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>338</v>
+        <v>273</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>341</v>
+        <v>275</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>342</v>
+        <v>276</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>343</v>
+        <v>277</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>344</v>
+        <v>278</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>345</v>
+        <v>279</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>346</v>
+        <v>280</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>348</v>
+        <v>270</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>349</v>
+        <v>270</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>350</v>
+        <v>282</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>351</v>
+        <v>283</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>352</v>
+        <v>284</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>338</v>
+        <v>286</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>353</v>
+        <v>279</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>354</v>
+        <v>287</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>355</v>
+        <v>288</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>357</v>
+        <v>290</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>358</v>
+        <v>269</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>359</v>
+        <v>290</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>360</v>
+        <v>292</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>361</v>
+        <v>293</v>
       </c>
       <c r="AO7" s="2" t="s">
-        <v>362</v>
+        <v>294</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>363</v>
+        <v>295</v>
       </c>
       <c r="AQ7" s="2" t="s">
-        <v>337</v>
+        <v>296</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>364</v>
+        <v>297</v>
       </c>
       <c r="AS7" s="2" t="s">
-        <v>363</v>
+        <v>271</v>
       </c>
       <c r="AT7" s="2" t="s">
-        <v>365</v>
+        <v>293</v>
       </c>
       <c r="AU7" s="2" t="s">
-        <v>366</v>
+        <v>298</v>
       </c>
       <c r="AV7" s="2" t="s">
-        <v>367</v>
+        <v>299</v>
       </c>
       <c r="AW7" s="2" t="s">
-        <v>368</v>
+        <v>300</v>
       </c>
       <c r="AX7" s="2" t="s">
-        <v>369</v>
+        <v>301</v>
       </c>
       <c r="AY7" s="2" t="s">
-        <v>370</v>
+        <v>269</v>
       </c>
       <c r="AZ7" s="2" t="s">
-        <v>371</v>
+        <v>269</v>
       </c>
       <c r="BA7" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="BB7" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="BC7" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="BD7" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="BE7" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="BF7" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="BG7" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="BH7" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="BI7" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="BJ7" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="BK7" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="BL7" s="2" t="s">
-        <v>379</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
